--- a/data/stock_list.xlsx
+++ b/data/stock_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Developer/fin_model_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB5C0D0-DD99-1B47-9018-E5D6029E760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017F4456-2956-504D-BEC9-97FB515B5477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{59FA3E77-6D31-314F-933E-2951A66676F8}"/>
+    <workbookView xWindow="23380" yWindow="760" windowWidth="11180" windowHeight="21580" xr2:uid="{59FA3E77-6D31-314F-933E-2951A66676F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC1370C-9E24-DB43-A6B1-7D879DB15B65}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/stock_list.xlsx
+++ b/data/stock_list.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Developer/fin_model_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017F4456-2956-504D-BEC9-97FB515B5477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E0FC6-BDF6-8B4D-A8E9-DB45E9E024B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23380" yWindow="760" windowWidth="11180" windowHeight="21580" xr2:uid="{59FA3E77-6D31-314F-933E-2951A66676F8}"/>
+    <workbookView xWindow="26560" yWindow="500" windowWidth="50240" windowHeight="31500" xr2:uid="{59FA3E77-6D31-314F-933E-2951A66676F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>Company</t>
   </si>
@@ -854,6 +865,9 @@
   </si>
   <si>
     <t>WMT</t>
+  </si>
+  <si>
+    <t>permno</t>
   </si>
 </sst>
 </file>
@@ -1259,15 +1273,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC1370C-9E24-DB43-A6B1-7D879DB15B65}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1280,246 +1298,300 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>14593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>14008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>84788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>59176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>19561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>18542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>90215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>76076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>14541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>26403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>86868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>66181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>10145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="E15">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>22111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>47896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>11308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1532,92 +1604,113 @@
       <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>22592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="E21">
+        <v>22752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="E22">
+        <v>10107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="E23">
+        <v>57665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="E24">
+        <v>86580</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>18163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -1630,8 +1723,11 @@
       <c r="D26" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>36468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>71</v>
       </c>
@@ -1644,8 +1740,11 @@
       <c r="D27" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>59459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>74</v>
       </c>
@@ -1658,36 +1757,46 @@
       <c r="D28" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>92655</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>92611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>65875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>82</v>
       </c>
@@ -1700,8 +1809,16 @@
       <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E31">
+        <v>55976</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{6DC1370C-9E24-DB43-A6B1-7D879DB15B65}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
+      <sortCondition ref="C1:C31"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>